--- a/missao-rotas/materiais/cronograma_rotas.xlsx
+++ b/missao-rotas/materiais/cronograma_rotas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robes\Desktop\github_pre\missao-rotas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robes\Desktop\github_pre\missao-rotas\materiais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF06EEC0-3537-493E-8DCC-7DFC9AE1D233}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74904F33-AD62-4F2F-889D-2B16594704F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,9 +96,6 @@
     <t>Desenvolver o APP MAPS</t>
   </si>
   <si>
-    <t>Elis/Maisa</t>
-  </si>
-  <si>
     <t>Desenvolver o CRUD Rotas</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>Integrador</t>
+  </si>
+  <si>
+    <t>Elis/Isadora</t>
   </si>
 </sst>
 </file>
@@ -459,10 +459,46 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -477,43 +513,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -891,7 +891,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="E13" sqref="E13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -926,9 +926,9 @@
     </row>
     <row r="2" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
       <c r="E2" s="52" t="s">
         <v>11</v>
       </c>
@@ -937,130 +937,130 @@
         <v>8</v>
       </c>
       <c r="H2" s="53"/>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="40"/>
     </row>
     <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="34"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="47" t="s">
+      <c r="H3" s="34"/>
+      <c r="I3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="48"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="34"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="47" t="s">
+      <c r="H4" s="34"/>
+      <c r="I4" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="48"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="42"/>
     </row>
     <row r="5" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="47" t="s">
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="48"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="42"/>
     </row>
     <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="50"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="44"/>
     </row>
     <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41" t="s">
+      <c r="F7" s="35"/>
+      <c r="G7" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41" t="s">
+      <c r="H7" s="35"/>
+      <c r="I7" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
       <c r="M7" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="51" t="s">
+      <c r="N7" s="45" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
       <c r="G8" s="19" t="s">
         <v>5</v>
       </c>
@@ -1082,7 +1082,7 @@
       <c r="M8" s="20">
         <v>1</v>
       </c>
-      <c r="N8" s="51"/>
+      <c r="N8" s="45"/>
     </row>
     <row r="9" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
@@ -1095,10 +1095,10 @@
       <c r="D9" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="34"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="23">
         <v>44228</v>
       </c>
@@ -1118,15 +1118,15 @@
         <v>2</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="34"/>
+      <c r="E10" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="36"/>
       <c r="G10" s="23">
         <v>44228</v>
       </c>
@@ -1146,15 +1146,15 @@
         <v>3</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="34"/>
+      <c r="E11" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="36"/>
       <c r="G11" s="23">
         <v>44228</v>
       </c>
@@ -1174,15 +1174,15 @@
         <v>4</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="34"/>
+      <c r="E12" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="36"/>
       <c r="G12" s="23">
         <v>44228</v>
       </c>
@@ -1207,10 +1207,10 @@
       <c r="D13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="40"/>
+      <c r="E13" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="34"/>
       <c r="G13" s="23">
         <v>44228</v>
       </c>
@@ -1230,15 +1230,15 @@
         <v>6</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="E14" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="43"/>
+      <c r="F14" s="38"/>
       <c r="G14" s="28">
         <v>44249</v>
       </c>
@@ -1259,8 +1259,8 @@
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
       <c r="I15" s="1"/>
@@ -1277,8 +1277,8 @@
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
       <c r="I16" s="1"/>
@@ -1295,8 +1295,8 @@
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
       <c r="G17" s="17"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -1374,13 +1374,17 @@
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
+    <mergeCell ref="B5:H6"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:N2"/>
     <mergeCell ref="I3:N3"/>
     <mergeCell ref="I4:N4"/>
     <mergeCell ref="I5:N5"/>
     <mergeCell ref="I6:N6"/>
-    <mergeCell ref="B5:H6"/>
-    <mergeCell ref="B2:D4"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -1391,10 +1395,6 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>

--- a/missao-rotas/materiais/cronograma_rotas.xlsx
+++ b/missao-rotas/materiais/cronograma_rotas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robes\Desktop\github_pre\missao-rotas\materiais\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robes\Desktop\git_pre\missao-rotas\materiais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74904F33-AD62-4F2F-889D-2B16594704F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1181F5C0-2551-4472-9571-5F997143A52B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Item</t>
   </si>
@@ -124,6 +124,21 @@
   </si>
   <si>
     <t>Elis/Isadora</t>
+  </si>
+  <si>
+    <t>Todos testarão no insomnia</t>
+  </si>
+  <si>
+    <t>Falta apenas Rever o Del, e finalizar o PUT</t>
+  </si>
+  <si>
+    <t>Deu inicio ao CRUD</t>
+  </si>
+  <si>
+    <t>Precisa se reunir com os outros grupos para da inicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (%) Total (500%)</t>
   </si>
 </sst>
 </file>
@@ -193,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -299,19 +314,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -331,21 +333,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -387,6 +374,67 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -395,50 +443,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -446,10 +477,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -458,7 +485,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -471,42 +498,60 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -516,11 +561,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,7 +598,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>135923</xdr:colOff>
+      <xdr:colOff>135924</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>280308</xdr:rowOff>
     </xdr:to>
@@ -888,14 +936,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:F13"/>
+      <selection activeCell="N6" sqref="N6:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="49.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
@@ -904,497 +953,517 @@
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="5.7109375" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="25.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" customWidth="1"/>
+    <col min="15" max="15" width="65.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="11"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="8"/>
     </row>
     <row r="2" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="52" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="53" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="39" t="s">
+      <c r="H2" s="50"/>
+      <c r="I2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="40"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="34" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="41" t="s">
+      <c r="H3" s="40"/>
+      <c r="I3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="42"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="34" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="41" t="s">
+      <c r="H4" s="40"/>
+      <c r="I4" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="42"/>
-    </row>
-    <row r="5" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="46" t="s">
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="38"/>
+    </row>
+    <row r="5" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="41" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="42"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="38"/>
     </row>
     <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="44"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="32" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="35" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="26">
         <v>1</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="J7" s="26">
         <v>2</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="K7" s="26">
         <v>3</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35" t="s">
+      <c r="L7" s="26">
         <v>4</v>
       </c>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" s="45" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="20">
+      <c r="M7" s="26">
         <v>1</v>
       </c>
-      <c r="J8" s="20">
+      <c r="N7" s="51"/>
+      <c r="O7" s="32"/>
+    </row>
+    <row r="8" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="42"/>
+      <c r="G8" s="16">
+        <v>44228</v>
+      </c>
+      <c r="H8" s="16">
+        <v>44229</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="29">
+        <v>1</v>
+      </c>
+      <c r="O8" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="2">
         <v>2</v>
       </c>
-      <c r="K8" s="20">
+      <c r="C9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="42"/>
+      <c r="G9" s="16">
+        <v>44228</v>
+      </c>
+      <c r="H9" s="16">
+        <v>44246</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="O9" s="30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="2">
         <v>3</v>
       </c>
-      <c r="L8" s="20">
+      <c r="C10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="42"/>
+      <c r="G10" s="16">
+        <v>44228</v>
+      </c>
+      <c r="H10" s="16">
+        <v>44246</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="O10" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="2">
         <v>4</v>
       </c>
-      <c r="M8" s="20">
-        <v>1</v>
-      </c>
-      <c r="N8" s="45"/>
-    </row>
-    <row r="9" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="22" t="s">
+      <c r="C11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="23">
+      <c r="E11" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="42"/>
+      <c r="G11" s="16">
         <v>44228</v>
       </c>
-      <c r="H9" s="23">
-        <v>44229</v>
-      </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="26"/>
-    </row>
-    <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="2">
-        <v>2</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="23">
-        <v>44228</v>
-      </c>
-      <c r="H10" s="23">
+      <c r="H11" s="16">
         <v>44246</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="26"/>
-    </row>
-    <row r="11" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="2">
-        <v>3</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="23">
-        <v>44228</v>
-      </c>
-      <c r="H11" s="23">
-        <v>44246</v>
-      </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="N11" s="29">
+        <v>0</v>
+      </c>
+      <c r="O11" s="30"/>
+    </row>
+    <row r="12" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
       <c r="B12" s="2">
-        <v>4</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="23">
+      <c r="E12" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="40"/>
+      <c r="G12" s="16">
         <v>44228</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="16">
         <v>44246</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="3"/>
+      <c r="N12" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="O12" s="30" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="2">
-        <v>5</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="23">
-        <v>44228</v>
-      </c>
-      <c r="H13" s="23">
-        <v>44246</v>
-      </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="40"/>
+      <c r="G13" s="19">
+        <v>44249</v>
+      </c>
+      <c r="H13" s="19">
+        <v>44253</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="22"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="3"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="30"/>
     </row>
     <row r="14" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="2">
-        <v>6</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="28">
-        <v>44249</v>
-      </c>
-      <c r="H14" s="28">
-        <v>44253</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="31"/>
+      <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="30"/>
+    </row>
+    <row r="15" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="13"/>
       <c r="B15" s="2">
-        <v>7</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
+        <v>8</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="16"/>
-      <c r="B16" s="2">
-        <v>8</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="13">
+      <c r="N15" s="28"/>
+      <c r="O15" s="30"/>
+    </row>
+    <row r="16" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="13"/>
+      <c r="B16" s="10">
         <v>9</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="5"/>
-    </row>
-    <row r="18" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="31"/>
+    </row>
+    <row r="17" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+    </row>
+    <row r="21" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
     </row>
     <row r="22" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
     </row>
     <row r="23" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
     </row>
     <row r="24" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
     </row>
     <row r="25" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
     </row>
     <row r="26" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
     </row>
     <row r="27" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-    </row>
-    <row r="28" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="27">
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="B5:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B5:H5"/>
     <mergeCell ref="B2:D4"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="I3:N3"/>
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="I5:N5"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="I5:O5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>

--- a/missao-rotas/materiais/cronograma_rotas.xlsx
+++ b/missao-rotas/materiais/cronograma_rotas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robes\Desktop\git_pre\missao-rotas\materiais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1181F5C0-2551-4472-9571-5F997143A52B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F2D1D7-9E84-46B0-8DBC-08CDBBD30264}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>Item</t>
   </si>
@@ -63,12 +63,6 @@
     <t>Legenda</t>
   </si>
   <si>
-    <t>Revisão: 1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data: </t>
-  </si>
-  <si>
     <t>Grupo</t>
   </si>
   <si>
@@ -138,7 +132,19 @@
     <t>Precisa se reunir com os outros grupos para da inicio</t>
   </si>
   <si>
-    <t xml:space="preserve"> (%) Total (500%)</t>
+    <t>Desenvolver ducumentação</t>
+  </si>
+  <si>
+    <t>ADM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (%) Total (600%)</t>
+  </si>
+  <si>
+    <t>Revisão: 1.2</t>
+  </si>
+  <si>
+    <t>Data: 07/02/2021</t>
   </si>
 </sst>
 </file>
@@ -208,7 +214,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -301,19 +307,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -382,56 +375,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -443,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -458,11 +405,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -485,7 +432,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -501,74 +457,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -939,7 +883,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6:N7"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -948,7 +892,8 @@
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="49.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="5.7109375" customWidth="1"/>
@@ -976,155 +921,155 @@
     </row>
     <row r="2" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="49" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="42" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="23"/>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="35"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="49"/>
     </row>
     <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="38"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="50"/>
     </row>
     <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="38"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="50"/>
     </row>
     <row r="5" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
-      <c r="B5" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="38"/>
+      <c r="B5" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="50"/>
     </row>
     <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41" t="s">
+      <c r="F6" s="33"/>
+      <c r="G6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" s="51" t="s">
+      <c r="H6" s="33"/>
+      <c r="I6" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="O6" s="32" t="s">
+      <c r="O6" s="45" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
       <c r="G7" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="29">
         <v>1</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="29">
         <v>2</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="29">
         <v>3</v>
       </c>
-      <c r="L7" s="26">
+      <c r="L7" s="29">
         <v>4</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7" s="29">
         <v>1</v>
       </c>
-      <c r="N7" s="51"/>
-      <c r="O7" s="32"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="45"/>
     </row>
     <row r="8" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
@@ -1132,15 +1077,15 @@
         <v>1</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="42"/>
+        <v>19</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="36"/>
       <c r="G8" s="16">
         <v>44228</v>
       </c>
@@ -1152,11 +1097,11 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="29">
+      <c r="N8" s="24">
         <v>1</v>
       </c>
-      <c r="O8" s="30" t="s">
-        <v>33</v>
+      <c r="O8" s="25" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -1165,15 +1110,15 @@
         <v>2</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="42"/>
+        <v>21</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="36"/>
       <c r="G9" s="16">
         <v>44228</v>
       </c>
@@ -1185,11 +1130,11 @@
       <c r="K9" s="22"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="29">
+      <c r="N9" s="24">
         <v>0.5</v>
       </c>
-      <c r="O9" s="30" t="s">
-        <v>34</v>
+      <c r="O9" s="25" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1198,15 +1143,15 @@
         <v>3</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="42"/>
+        <v>23</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="36"/>
       <c r="G10" s="16">
         <v>44228</v>
       </c>
@@ -1218,11 +1163,11 @@
       <c r="K10" s="22"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="29">
+      <c r="N10" s="24">
         <v>0.5</v>
       </c>
-      <c r="O10" s="30" t="s">
-        <v>35</v>
+      <c r="O10" s="25" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1231,15 +1176,15 @@
         <v>4</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="42"/>
+        <v>26</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="36"/>
       <c r="G11" s="16">
         <v>44228</v>
       </c>
@@ -1251,10 +1196,10 @@
       <c r="K11" s="22"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="29">
+      <c r="N11" s="24">
         <v>0</v>
       </c>
-      <c r="O11" s="30"/>
+      <c r="O11" s="25"/>
     </row>
     <row r="12" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
@@ -1262,15 +1207,15 @@
         <v>5</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="40"/>
+        <v>20</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="32"/>
       <c r="G12" s="16">
         <v>44228</v>
       </c>
@@ -1282,11 +1227,11 @@
       <c r="K12" s="22"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="29">
+      <c r="N12" s="24">
         <v>0.1</v>
       </c>
-      <c r="O12" s="30" t="s">
-        <v>36</v>
+      <c r="O12" s="25" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1294,48 +1239,60 @@
       <c r="B13" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="19">
-        <v>44249</v>
-      </c>
-      <c r="H13" s="19">
-        <v>44253</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="30"/>
+      <c r="C13" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="32"/>
+      <c r="G13" s="16">
+        <v>44228</v>
+      </c>
+      <c r="H13" s="16">
+        <v>44246</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="24">
+        <v>0</v>
+      </c>
+      <c r="O13" s="25"/>
     </row>
     <row r="14" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="2">
         <v>7</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="C14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="19">
+        <v>44249</v>
+      </c>
+      <c r="H14" s="19">
+        <v>44253</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+      <c r="L14" s="22"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="30"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="25"/>
     </row>
     <row r="15" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13"/>
@@ -1344,8 +1301,8 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="1"/>
@@ -1353,8 +1310,8 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="30"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="25"/>
     </row>
     <row r="16" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13"/>
@@ -1363,17 +1320,17 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="24"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="27"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="31"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="26"/>
     </row>
     <row r="17" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
@@ -1437,6 +1394,21 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I6:L6"/>
@@ -1449,21 +1421,6 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="I5:O5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>

--- a/missao-rotas/materiais/cronograma_rotas.xlsx
+++ b/missao-rotas/materiais/cronograma_rotas.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robes\Desktop\git_pre\missao-rotas\materiais\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JANDERSON\Desktop\projetoIntegrador\ecosystem\missao-rotas\materiais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F2D1D7-9E84-46B0-8DBC-08CDBBD30264}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>Item</t>
   </si>
@@ -123,12 +122,6 @@
     <t>Todos testarão no insomnia</t>
   </si>
   <si>
-    <t>Falta apenas Rever o Del, e finalizar o PUT</t>
-  </si>
-  <si>
-    <t>Deu inicio ao CRUD</t>
-  </si>
-  <si>
     <t>Precisa se reunir com os outros grupos para da inicio</t>
   </si>
   <si>
@@ -145,12 +138,18 @@
   </si>
   <si>
     <t>Data: 07/02/2021</t>
+  </si>
+  <si>
+    <t>READ, DEL</t>
+  </si>
+  <si>
+    <t>READ, DEL, INSERT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -457,21 +456,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -492,27 +512,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -876,14 +875,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -921,132 +920,132 @@
     </row>
     <row r="2" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="42" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="49" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="23"/>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="49"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="36"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="41"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="50"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="37"/>
     </row>
     <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="46" t="s">
+      <c r="H4" s="39"/>
+      <c r="I4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="50"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="37"/>
     </row>
     <row r="5" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="46" t="s">
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="50"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="37"/>
     </row>
     <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33" t="s">
+      <c r="F6" s="40"/>
+      <c r="G6" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33" t="s">
+      <c r="H6" s="40"/>
+      <c r="I6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
       <c r="M6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6" s="45" t="s">
+      <c r="N6" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="33" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
       <c r="G7" s="14" t="s">
         <v>5</v>
       </c>
@@ -1068,8 +1067,8 @@
       <c r="M7" s="29">
         <v>1</v>
       </c>
-      <c r="N7" s="34"/>
-      <c r="O7" s="45"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="33"/>
     </row>
     <row r="8" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
@@ -1082,10 +1081,10 @@
       <c r="D8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="36"/>
+      <c r="F8" s="41"/>
       <c r="G8" s="16">
         <v>44228</v>
       </c>
@@ -1115,10 +1114,10 @@
       <c r="D9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="36"/>
+      <c r="F9" s="41"/>
       <c r="G9" s="16">
         <v>44228</v>
       </c>
@@ -1131,10 +1130,10 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="24">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="O9" s="25" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1148,10 +1147,10 @@
       <c r="D10" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="36"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="16">
         <v>44228</v>
       </c>
@@ -1164,10 +1163,10 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="24">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="O10" s="25" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1181,10 +1180,10 @@
       <c r="D11" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="36"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="16">
         <v>44228</v>
       </c>
@@ -1197,9 +1196,11 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="24">
-        <v>0</v>
-      </c>
-      <c r="O11" s="25"/>
+        <v>0.75</v>
+      </c>
+      <c r="O11" s="25" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
@@ -1212,10 +1213,10 @@
       <c r="D12" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="32"/>
+      <c r="F12" s="39"/>
       <c r="G12" s="16">
         <v>44228</v>
       </c>
@@ -1231,7 +1232,7 @@
         <v>0.1</v>
       </c>
       <c r="O12" s="25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1239,16 +1240,16 @@
       <c r="B13" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="47" t="s">
-        <v>35</v>
+      <c r="C13" s="32" t="s">
+        <v>33</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="32"/>
+      <c r="F13" s="39"/>
       <c r="G13" s="16">
         <v>44228</v>
       </c>
@@ -1261,7 +1262,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="24">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O13" s="25"/>
     </row>
@@ -1276,10 +1277,10 @@
       <c r="D14" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="32"/>
+      <c r="F14" s="39"/>
       <c r="G14" s="19">
         <v>44249</v>
       </c>
@@ -1301,8 +1302,8 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="1"/>
@@ -1320,8 +1321,8 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
       <c r="G16" s="27"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1394,21 +1395,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E13:F13"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I6:L6"/>
@@ -1421,6 +1407,21 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="I5:O5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>

--- a/missao-rotas/materiais/cronograma_rotas.xlsx
+++ b/missao-rotas/materiais/cronograma_rotas.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JANDERSON\Desktop\projetoIntegrador\ecosystem\missao-rotas\materiais\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robes\Desktop\git_pre\missao-rotas\materiais\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768A9D13-8CDA-4050-95A6-AE1A4C3D1552}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -134,23 +141,23 @@
     <t xml:space="preserve"> (%) Total (600%)</t>
   </si>
   <si>
-    <t>Revisão: 1.2</t>
-  </si>
-  <si>
-    <t>Data: 07/02/2021</t>
-  </si>
-  <si>
     <t>READ, DEL</t>
   </si>
   <si>
     <t>READ, DEL, INSERT</t>
+  </si>
+  <si>
+    <t>Revisão: 1.3</t>
+  </si>
+  <si>
+    <t>Data: 09/02/2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +182,14 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -389,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -459,6 +474,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -474,43 +528,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -875,14 +893,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="I4" sqref="I4:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -920,132 +938,132 @@
     </row>
     <row r="2" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="49" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="43" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="23"/>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="35"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="41"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="37"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="37"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="50"/>
     </row>
     <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="41"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="37"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="39"/>
-      <c r="I4" s="36" t="s">
+      <c r="H4" s="33"/>
+      <c r="I4" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="37"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="50"/>
     </row>
     <row r="5" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="36" t="s">
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="37"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="50"/>
     </row>
     <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40" t="s">
+      <c r="F6" s="34"/>
+      <c r="G6" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40" t="s">
+      <c r="H6" s="34"/>
+      <c r="I6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
       <c r="M6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="42" t="s">
+      <c r="N6" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="33" t="s">
+      <c r="O6" s="46" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
       <c r="G7" s="14" t="s">
         <v>5</v>
       </c>
@@ -1067,8 +1085,8 @@
       <c r="M7" s="29">
         <v>1</v>
       </c>
-      <c r="N7" s="42"/>
-      <c r="O7" s="33"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
@@ -1081,10 +1099,10 @@
       <c r="D8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="41"/>
+      <c r="F8" s="37"/>
       <c r="G8" s="16">
         <v>44228</v>
       </c>
@@ -1114,10 +1132,10 @@
       <c r="D9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="41"/>
+      <c r="F9" s="37"/>
       <c r="G9" s="16">
         <v>44228</v>
       </c>
@@ -1133,7 +1151,7 @@
         <v>0.75</v>
       </c>
       <c r="O9" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1147,10 +1165,10 @@
       <c r="D10" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="41"/>
+      <c r="F10" s="37"/>
       <c r="G10" s="16">
         <v>44228</v>
       </c>
@@ -1166,7 +1184,7 @@
         <v>0.75</v>
       </c>
       <c r="O10" s="25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1180,10 +1198,10 @@
       <c r="D11" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="41"/>
+      <c r="F11" s="37"/>
       <c r="G11" s="16">
         <v>44228</v>
       </c>
@@ -1199,7 +1217,7 @@
         <v>0.75</v>
       </c>
       <c r="O11" s="25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1213,10 +1231,10 @@
       <c r="D12" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="39"/>
+      <c r="F12" s="33"/>
       <c r="G12" s="16">
         <v>44228</v>
       </c>
@@ -1246,10 +1264,10 @@
       <c r="D13" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="39"/>
+      <c r="F13" s="33"/>
       <c r="G13" s="16">
         <v>44228</v>
       </c>
@@ -1277,10 +1295,10 @@
       <c r="D14" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="39"/>
+      <c r="F14" s="33"/>
       <c r="G14" s="19">
         <v>44249</v>
       </c>
@@ -1302,8 +1320,8 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="1"/>
@@ -1321,8 +1339,8 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
       <c r="G16" s="27"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1330,7 +1348,10 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="27"/>
+      <c r="N16" s="51">
+        <f>SUM(N8:N15)</f>
+        <v>3.85</v>
+      </c>
       <c r="O16" s="26"/>
     </row>
     <row r="17" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1395,6 +1416,21 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I6:L6"/>
@@ -1407,21 +1443,6 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="I5:O5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>

--- a/missao-rotas/materiais/cronograma_rotas.xlsx
+++ b/missao-rotas/materiais/cronograma_rotas.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robes\Desktop\git_pre\missao-rotas\materiais\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JANDERSON\Desktop\projetoIntegrador\ecosystem\missao-rotas\materiais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768A9D13-8CDA-4050-95A6-AE1A4C3D1552}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -141,22 +140,22 @@
     <t xml:space="preserve"> (%) Total (600%)</t>
   </si>
   <si>
-    <t>READ, DEL</t>
-  </si>
-  <si>
-    <t>READ, DEL, INSERT</t>
-  </si>
-  <si>
     <t>Revisão: 1.3</t>
   </si>
   <si>
     <t>Data: 09/02/2021</t>
+  </si>
+  <si>
+    <t>PENDÊNTE</t>
+  </si>
+  <si>
+    <t>READ, CREATE,DELETE,UPDATE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -474,21 +473,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -508,27 +528,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -893,14 +892,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:O4"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -938,132 +937,132 @@
     </row>
     <row r="2" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="43" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="50" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="23"/>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="48"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="37"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="50"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="37"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="49" t="s">
+      <c r="H4" s="40"/>
+      <c r="I4" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="50"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="49" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="50"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="38"/>
     </row>
     <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34" t="s">
+      <c r="F6" s="41"/>
+      <c r="G6" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34" t="s">
+      <c r="H6" s="41"/>
+      <c r="I6" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
       <c r="M6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="35" t="s">
+      <c r="N6" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="46" t="s">
+      <c r="O6" s="34" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
       <c r="G7" s="14" t="s">
         <v>5</v>
       </c>
@@ -1085,8 +1084,8 @@
       <c r="M7" s="29">
         <v>1</v>
       </c>
-      <c r="N7" s="35"/>
-      <c r="O7" s="46"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="34"/>
     </row>
     <row r="8" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
@@ -1099,10 +1098,10 @@
       <c r="D8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="37"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="16">
         <v>44228</v>
       </c>
@@ -1132,10 +1131,10 @@
       <c r="D9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="37"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="16">
         <v>44228</v>
       </c>
@@ -1151,7 +1150,7 @@
         <v>0.75</v>
       </c>
       <c r="O9" s="25" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1165,10 +1164,10 @@
       <c r="D10" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="37"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="16">
         <v>44228</v>
       </c>
@@ -1181,10 +1180,10 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="24">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="O10" s="25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1198,10 +1197,10 @@
       <c r="D11" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="37"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="16">
         <v>44228</v>
       </c>
@@ -1214,10 +1213,10 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="24">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="O11" s="25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1231,10 +1230,10 @@
       <c r="D12" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="33"/>
+      <c r="F12" s="40"/>
       <c r="G12" s="16">
         <v>44228</v>
       </c>
@@ -1264,10 +1263,10 @@
       <c r="D13" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="33"/>
+      <c r="F13" s="40"/>
       <c r="G13" s="16">
         <v>44228</v>
       </c>
@@ -1280,7 +1279,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="24">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O13" s="25"/>
     </row>
@@ -1295,10 +1294,10 @@
       <c r="D14" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="33"/>
+      <c r="F14" s="40"/>
       <c r="G14" s="19">
         <v>44249</v>
       </c>
@@ -1320,8 +1319,8 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="1"/>
@@ -1339,8 +1338,8 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
       <c r="G16" s="27"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1348,9 +1347,9 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="51">
+      <c r="N16" s="33">
         <f>SUM(N8:N15)</f>
-        <v>3.85</v>
+        <v>1.85</v>
       </c>
       <c r="O16" s="26"/>
     </row>
@@ -1416,21 +1415,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E13:F13"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I6:L6"/>
@@ -1443,6 +1427,21 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="I5:O5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>

--- a/missao-rotas/materiais/cronograma_rotas.xlsx
+++ b/missao-rotas/materiais/cronograma_rotas.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>Item</t>
   </si>
@@ -128,9 +128,6 @@
     <t>Todos testarão no insomnia</t>
   </si>
   <si>
-    <t>Precisa se reunir com os outros grupos para da inicio</t>
-  </si>
-  <si>
     <t>Desenvolver ducumentação</t>
   </si>
   <si>
@@ -150,13 +147,22 @@
   </si>
   <si>
     <t>READ, CREATE,DELETE,UPDATE</t>
+  </si>
+  <si>
+    <t>Reunião: Robesio, Leonardo, Janderson, Wellington e Reenye</t>
+  </si>
+  <si>
+    <t>FASE FINAL</t>
+  </si>
+  <si>
+    <t>CRUD'S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +195,13 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -400,10 +413,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -530,9 +544,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -898,8 +916,8 @@
   </sheetPr>
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -915,7 +933,7 @@
     <col min="9" max="12" width="5.7109375" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
     <col min="14" max="14" width="13.42578125" customWidth="1"/>
-    <col min="15" max="15" width="65.5703125" customWidth="1"/>
+    <col min="15" max="15" width="75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -949,7 +967,7 @@
       </c>
       <c r="H2" s="51"/>
       <c r="I2" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
@@ -970,7 +988,7 @@
       </c>
       <c r="H3" s="40"/>
       <c r="I3" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J3" s="37"/>
       <c r="K3" s="37"/>
@@ -1050,7 +1068,7 @@
         <v>15</v>
       </c>
       <c r="N6" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O6" s="34" t="s">
         <v>7</v>
@@ -1147,10 +1165,10 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="24">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O9" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1180,10 +1198,10 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="24">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="O10" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1216,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1249,7 +1267,7 @@
         <v>0.1</v>
       </c>
       <c r="O12" s="25" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1258,10 +1276,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="28" t="s">
         <v>33</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>34</v>
       </c>
       <c r="E13" s="40" t="s">
         <v>22</v>
@@ -1279,9 +1297,11 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="24">
-        <v>0</v>
-      </c>
-      <c r="O13" s="25"/>
+        <v>0.75</v>
+      </c>
+      <c r="O13" s="25" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="14" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
@@ -1309,8 +1329,12 @@
       <c r="K14" s="1"/>
       <c r="L14" s="22"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="25"/>
+      <c r="N14" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="O14" s="25" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="15" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13"/>
@@ -1349,7 +1373,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="33">
         <f>SUM(N8:N15)</f>
-        <v>1.85</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="O16" s="26"/>
     </row>

--- a/missao-rotas/materiais/cronograma_rotas.xlsx
+++ b/missao-rotas/materiais/cronograma_rotas.xlsx
@@ -490,6 +490,48 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -504,48 +546,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -917,7 +917,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -955,132 +955,132 @@
     </row>
     <row r="2" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="50" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="45" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="23"/>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="35" t="s">
+      <c r="H2" s="46"/>
+      <c r="I2" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="36"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="50"/>
     </row>
     <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="37" t="s">
+      <c r="H3" s="35"/>
+      <c r="I3" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="38"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="52"/>
     </row>
     <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="37" t="s">
+      <c r="H4" s="35"/>
+      <c r="I4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="38"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="52"/>
     </row>
     <row r="5" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="37" t="s">
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="38"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="52"/>
     </row>
     <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41" t="s">
+      <c r="F6" s="36"/>
+      <c r="G6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41" t="s">
+      <c r="H6" s="36"/>
+      <c r="I6" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
       <c r="M6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="N6" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="O6" s="34" t="s">
+      <c r="O6" s="48" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="14" t="s">
         <v>5</v>
       </c>
@@ -1102,8 +1102,8 @@
       <c r="M7" s="29">
         <v>1</v>
       </c>
-      <c r="N7" s="43"/>
-      <c r="O7" s="34"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="48"/>
     </row>
     <row r="8" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
@@ -1116,10 +1116,10 @@
       <c r="D8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="42"/>
+      <c r="F8" s="39"/>
       <c r="G8" s="16">
         <v>44228</v>
       </c>
@@ -1149,10 +1149,10 @@
       <c r="D9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="42"/>
+      <c r="F9" s="39"/>
       <c r="G9" s="16">
         <v>44228</v>
       </c>
@@ -1182,10 +1182,10 @@
       <c r="D10" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="42"/>
+      <c r="F10" s="39"/>
       <c r="G10" s="16">
         <v>44228</v>
       </c>
@@ -1215,10 +1215,10 @@
       <c r="D11" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="42"/>
+      <c r="F11" s="39"/>
       <c r="G11" s="16">
         <v>44228</v>
       </c>
@@ -1248,10 +1248,10 @@
       <c r="D12" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="40"/>
+      <c r="F12" s="35"/>
       <c r="G12" s="16">
         <v>44228</v>
       </c>
@@ -1281,10 +1281,10 @@
       <c r="D13" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="40"/>
+      <c r="F13" s="35"/>
       <c r="G13" s="16">
         <v>44228</v>
       </c>
@@ -1314,10 +1314,10 @@
       <c r="D14" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="40"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="19">
         <v>44249</v>
       </c>
@@ -1329,7 +1329,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="22"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="52">
+      <c r="N14" s="34">
         <v>0.5</v>
       </c>
       <c r="O14" s="25" t="s">
@@ -1343,8 +1343,8 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="1"/>
@@ -1362,8 +1362,8 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
       <c r="G16" s="27"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1439,6 +1439,21 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I6:L6"/>
@@ -1451,21 +1466,6 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="I5:O5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>

--- a/missao-rotas/materiais/cronograma_rotas.xlsx
+++ b/missao-rotas/materiais/cronograma_rotas.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JANDERSON\Desktop\projetoIntegrador\ecosystem\missao-rotas\materiais\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robes\Desktop\git_pre\missao-rotas\materiais\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD04485C-950D-4F1D-94F7-9ACBBEEA90D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -137,31 +138,31 @@
     <t xml:space="preserve"> (%) Total (600%)</t>
   </si>
   <si>
-    <t>Revisão: 1.3</t>
-  </si>
-  <si>
-    <t>Data: 09/02/2021</t>
-  </si>
-  <si>
     <t>PENDÊNTE</t>
   </si>
   <si>
     <t>READ, CREATE,DELETE,UPDATE</t>
   </si>
   <si>
-    <t>Reunião: Robesio, Leonardo, Janderson, Wellington e Reenye</t>
-  </si>
-  <si>
     <t>FASE FINAL</t>
   </si>
   <si>
     <t>CRUD'S</t>
+  </si>
+  <si>
+    <t>INICIO</t>
+  </si>
+  <si>
+    <t>Revisão: 1.4</t>
+  </si>
+  <si>
+    <t>Data: 11/02/2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -493,21 +494,39 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -528,24 +547,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -910,14 +911,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -955,132 +956,132 @@
     </row>
     <row r="2" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="45" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="51" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="23"/>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="50"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="37"/>
     </row>
     <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="39"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="43"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="52"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="39"/>
     </row>
     <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="39"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="35"/>
-      <c r="I4" s="51" t="s">
+      <c r="H4" s="41"/>
+      <c r="I4" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="52"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="51" t="s">
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="52"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36" t="s">
+      <c r="F6" s="42"/>
+      <c r="G6" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36" t="s">
+      <c r="H6" s="42"/>
+      <c r="I6" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
       <c r="M6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="37" t="s">
+      <c r="N6" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="O6" s="48" t="s">
+      <c r="O6" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="14" t="s">
         <v>5</v>
       </c>
@@ -1102,8 +1103,8 @@
       <c r="M7" s="29">
         <v>1</v>
       </c>
-      <c r="N7" s="37"/>
-      <c r="O7" s="48"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="35"/>
     </row>
     <row r="8" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
@@ -1116,10 +1117,10 @@
       <c r="D8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="39"/>
+      <c r="F8" s="43"/>
       <c r="G8" s="16">
         <v>44228</v>
       </c>
@@ -1149,10 +1150,10 @@
       <c r="D9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="39"/>
+      <c r="F9" s="43"/>
       <c r="G9" s="16">
         <v>44228</v>
       </c>
@@ -1168,7 +1169,7 @@
         <v>1</v>
       </c>
       <c r="O9" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1182,10 +1183,10 @@
       <c r="D10" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="39"/>
+      <c r="F10" s="43"/>
       <c r="G10" s="16">
         <v>44228</v>
       </c>
@@ -1201,7 +1202,7 @@
         <v>0.75</v>
       </c>
       <c r="O10" s="25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1215,10 +1216,10 @@
       <c r="D11" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="39"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="16">
         <v>44228</v>
       </c>
@@ -1234,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1248,10 +1249,10 @@
       <c r="D12" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="35"/>
+      <c r="F12" s="41"/>
       <c r="G12" s="16">
         <v>44228</v>
       </c>
@@ -1281,10 +1282,10 @@
       <c r="D13" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="35"/>
+      <c r="F13" s="41"/>
       <c r="G13" s="16">
         <v>44228</v>
       </c>
@@ -1297,10 +1298,10 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="24">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="O13" s="25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1314,10 +1315,10 @@
       <c r="D14" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="35"/>
+      <c r="F14" s="41"/>
       <c r="G14" s="19">
         <v>44249</v>
       </c>
@@ -1329,11 +1330,9 @@
       <c r="K14" s="1"/>
       <c r="L14" s="22"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="34">
-        <v>0.5</v>
-      </c>
+      <c r="N14" s="34"/>
       <c r="O14" s="25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -1343,8 +1342,8 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="1"/>
@@ -1362,8 +1361,8 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
       <c r="G16" s="27"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1373,7 +1372,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="33">
         <f>SUM(N8:N15)</f>
-        <v>4.0999999999999996</v>
+        <v>2.85</v>
       </c>
       <c r="O16" s="26"/>
     </row>
@@ -1439,21 +1438,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E13:F13"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I6:L6"/>
@@ -1466,6 +1450,21 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="I5:O5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>

--- a/missao-rotas/materiais/cronograma_rotas.xlsx
+++ b/missao-rotas/materiais/cronograma_rotas.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robes\Desktop\git_pre\missao-rotas\materiais\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno.DSN5131112167\Desktop\conteudo\EcoSystem\ecosystem\missao-rotas\materiais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD04485C-950D-4F1D-94F7-9ACBBEEA90D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -126,9 +125,6 @@
     <t>Elis/Isadora</t>
   </si>
   <si>
-    <t>Todos testarão no insomnia</t>
-  </si>
-  <si>
     <t>Desenvolver ducumentação</t>
   </si>
   <si>
@@ -138,31 +134,34 @@
     <t xml:space="preserve"> (%) Total (600%)</t>
   </si>
   <si>
-    <t>PENDÊNTE</t>
-  </si>
-  <si>
-    <t>READ, CREATE,DELETE,UPDATE</t>
-  </si>
-  <si>
-    <t>FASE FINAL</t>
-  </si>
-  <si>
-    <t>CRUD'S</t>
-  </si>
-  <si>
-    <t>INICIO</t>
-  </si>
-  <si>
-    <t>Revisão: 1.4</t>
-  </si>
-  <si>
-    <t>Data: 11/02/2021</t>
+    <t>Revisão: 1.5</t>
+  </si>
+  <si>
+    <t>Data: 08/03/2021</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Todos testarão no insomnia OK</t>
+  </si>
+  <si>
+    <t>READ, CREATE,DELETE,UPDATE OK</t>
+  </si>
+  <si>
+    <t>INICIO OK</t>
+  </si>
+  <si>
+    <t>FASE FINAL OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -494,6 +493,45 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -508,45 +546,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -586,7 +585,7 @@
         <xdr:cNvPr id="2" name="Imagem 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34803E61-32B9-456D-8F13-403339D79775}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{34803E61-32B9-456D-8F13-403339D79775}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -911,14 +910,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:O4"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -956,132 +955,132 @@
     </row>
     <row r="2" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="51" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="45" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="23"/>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="37"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="50"/>
     </row>
     <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="43"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="41"/>
-      <c r="I3" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="39"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="52"/>
     </row>
     <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="43"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="41"/>
-      <c r="I4" s="38" t="s">
+      <c r="H4" s="35"/>
+      <c r="I4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="39"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="52"/>
     </row>
     <row r="5" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="38" t="s">
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="39"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="52"/>
     </row>
     <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42" t="s">
+      <c r="F6" s="36"/>
+      <c r="G6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42" t="s">
+      <c r="H6" s="36"/>
+      <c r="I6" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
       <c r="M6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" s="35" t="s">
+      <c r="N6" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="48" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="14" t="s">
         <v>5</v>
       </c>
@@ -1103,8 +1102,8 @@
       <c r="M7" s="29">
         <v>1</v>
       </c>
-      <c r="N7" s="44"/>
-      <c r="O7" s="35"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="48"/>
     </row>
     <row r="8" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
@@ -1117,10 +1116,10 @@
       <c r="D8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="43"/>
+      <c r="F8" s="39"/>
       <c r="G8" s="16">
         <v>44228</v>
       </c>
@@ -1136,7 +1135,7 @@
         <v>1</v>
       </c>
       <c r="O8" s="25" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -1150,10 +1149,10 @@
       <c r="D9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="43"/>
+      <c r="F9" s="39"/>
       <c r="G9" s="16">
         <v>44228</v>
       </c>
@@ -1163,13 +1162,13 @@
       <c r="I9" s="20"/>
       <c r="J9" s="21"/>
       <c r="K9" s="22"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
       <c r="N9" s="24">
         <v>1</v>
       </c>
       <c r="O9" s="25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1183,10 +1182,10 @@
       <c r="D10" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="43"/>
+      <c r="F10" s="39"/>
       <c r="G10" s="16">
         <v>44228</v>
       </c>
@@ -1196,13 +1195,13 @@
       <c r="I10" s="18"/>
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
       <c r="N10" s="24">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O10" s="25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1216,10 +1215,10 @@
       <c r="D11" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="43"/>
+      <c r="F11" s="39"/>
       <c r="G11" s="16">
         <v>44228</v>
       </c>
@@ -1229,13 +1228,13 @@
       <c r="I11" s="18"/>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
       <c r="N11" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1249,10 +1248,10 @@
       <c r="D12" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="41"/>
+      <c r="F12" s="35"/>
       <c r="G12" s="16">
         <v>44228</v>
       </c>
@@ -1262,10 +1261,10 @@
       <c r="I12" s="18"/>
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
       <c r="N12" s="24">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="O12" s="25" t="s">
         <v>39</v>
@@ -1277,15 +1276,15 @@
         <v>6</v>
       </c>
       <c r="C13" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="41"/>
+      <c r="F13" s="35"/>
       <c r="G13" s="16">
         <v>44228</v>
       </c>
@@ -1295,13 +1294,13 @@
       <c r="I13" s="18"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
       <c r="N13" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="25" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1315,10 +1314,10 @@
       <c r="D14" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="41"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="19">
         <v>44249</v>
       </c>
@@ -1332,7 +1331,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="34"/>
       <c r="O14" s="25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -1342,8 +1341,8 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="1"/>
@@ -1361,8 +1360,8 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
       <c r="G16" s="27"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1372,7 +1371,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="33">
         <f>SUM(N8:N15)</f>
-        <v>2.85</v>
+        <v>6</v>
       </c>
       <c r="O16" s="26"/>
     </row>
@@ -1438,6 +1437,21 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I6:L6"/>
@@ -1450,21 +1464,6 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="I5:O5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
